--- a/Data Collection/Authors/Thomas Hürlimann/articles_Huerlimann_Jan_1.xlsx
+++ b/Data Collection/Authors/Thomas Hürlimann/articles_Huerlimann_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Thomas Hürlimann/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9CA61ECC97D9AEFF0B539CF96E0A09766D68C87E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E624A14-9A14-4768-8F71-28BD1D0E79D1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="319">
   <si>
     <t>title</t>
   </si>
@@ -237,12 +243,1006 @@
 20 Minuten ist ein Teil der TX Group und umfasst 20 Minuten, 20 minutes und 20 minuti, 20 Minuten Radio, lematin.ch, Encore und die Beteiligungen im Ausland (L’essentiel in Luxemburg, Heute in Österreich und BT in Dänemark).
 www.20minuten.chDie Agentur wird acht Video- und Fotografen an den Standorten Zürich, Bern und Lausanne sowie die Tagesleitung und Bildredaktion umfassen.</t>
   </si>
+  <si>
+    <t>Wenn das Fiktive ins Reale rutscht - Thomas Hürlimann ...</t>
+  </si>
+  <si>
+    <t>Wenn das Fiktive ins Reale rutscht. Thomas Hürlimann erzählt auf zwei CDs seine Kindheit und Jugend im Kloster „Einsiedeln“. Von Anton Philipp Knittel · RSS- ...</t>
+  </si>
+  <si>
+    <t>https://literaturkritik.de/huerlimann-einsiedeln-wenn-fiktive-ins-reale-rutscht-thomas-huerlimann-erzaehlt-auf-zwei-cds-seine-kindheit-jugend-kloster-einsiedeln,27561.html</t>
+  </si>
+  <si>
+    <t>Wenn das Fiktive ins Reale rutschtThomas Hürlimann erzählt auf zwei CDs seine Kindheit und Jugend im Kloster „Einsiedeln“Unlängst hat der Schweizer Schriftsteller Thomas Hürlimann zu seinem 70.
+Geburtstag sich und seine große Leserschaft mit 24 Prosatexten aus 40 Jahren unter dem Titel Spaziergang mit dem Kater beschenkt.
+Unter anderem erinnert er dabei auch an seine Schilderung jener „Naturkathedrale“, die ihm die Schläge zum Dichter einbringen.
+„Und als sich die Pforte schloss, wusste ich, das war ein Fehler“, benennt der Erzähler Hürlimann das exakte Datum, den 3.
+Denn der Klosterablauf bringt es mit sich, dass vor dem Schluss der Sendung der Fernsehapparat ausgeschaltet wird.</t>
+  </si>
+  <si>
+    <t>Sätze, die sitzen: Michael Maar zeigt, wie Sprache Literatur wird</t>
+  </si>
+  <si>
+    <t>Thomas Ribi 17.01.2021, 20.30 Uhr. Hören ... die Erinnerung entfaltet: Darüber spricht der Schriftsteller Thomas Hürlimann im Interview mit Sieglinde Geisel.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/saetze-die-sitzen-michael-maar-zeigt-wie-sprache-literatur-wird-ld.1596696</t>
+  </si>
+  <si>
+    <t>Natürlich wissen wir, was Literatur ist, und würden uns auch zutrauen, gute von schlechter Literatur zu unterscheiden.
+Er versteht zu lesen, schaut genau hin, wie die Texte gemacht sind, die er bewundert – und versucht zu verstehen, warum sie so gut sind, wie sie sind.
+Als Leser fühlt man sich fast so unwohl wie der frisch Entlassene, der vor dem Tor der Haftanstalt steht und sich nicht vom Fleck rührt.
+Und es ist gerade deshalb so zwingend, weil es so schlicht ist.
+Und Michael Maar geht es nicht darum, nach Verstössen zu suchen, sondern zu zeigen: In der Literatur ist fast alles möglich, wenn es gut gemacht wird.</t>
+  </si>
+  <si>
+    <t>«Coronoia»: Nachrichten aus unseren Höhlen</t>
+  </si>
+  <si>
+    <t>Neue Zürcher Zeitung AG, Schweiz</t>
+  </si>
+  <si>
+    <t>Thomas Hürlimann: «Meine eigene Endlichkeit stimmt mich heiter, sie macht mich frei». Am 21. Dezember 2020 wird Thomas Hürlimann 70 Jahre alt.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/kultur/coronoia-nachrichten-aus-unseren-hoehlen-ld.1596642</t>
+  </si>
+  <si>
+    <t>Wie «Coronoia» unsere Gesellschaft noch weiter atomisiert Der Mensch ist ein «soziales Tier».
+Er dreht durch, wenn er mit sich allein ist.
+Jetzt aber verdammen uns das Virus und das Aufhebens, das darum gemacht wird, zum Rückzug in unsere Höhlen.
+Garstige Umstände sind für viele kein Grund, nicht in die Welt hinauszuschrei(b)en.
+F1 OnlineEs gibt diesen Satz aus den «Pensées» des französischen Philosophen und Mathematikers Blaise Pascal, der in diesen Monaten der Stilllegung oft zitiert wird: «Das ganze Unglück der Menschen rührt allein daher, dass sie nicht ruhig in einem Zimmer zu bleiben vermögen.»</t>
+  </si>
+  <si>
+    <t>CH Media: Thomas Walliser geht als Leiter Fachmedien und übergibt an Michael Sprecher</t>
+  </si>
+  <si>
+    <t>Thomas Walliser geht als Leiter Fachmedien und übergibt an Michael Sprecher. von Beat Hürlimann. Dienstag, 26. Januar 2021.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/ch-media-thomas-walliser-verlaesst-ch-media-und-uebergibt-an-michael-sprecher-188770</t>
+  </si>
+  <si>
+    <t>Über CH Media CH Media ist eines der führenden Schweizer Medienunternehmen und beschäftigt in der Deutschschweiz rund 2000 Mitarbeitende.
+Mit ihren Tages- und Wochenzeitungen und Zeitschriften bietet CH Media hochstehenden Journalismus.
+Als Nummer 1 sowohl im Schweizer Privatradiobereich als auch im privaten Schweizer Fernsehen steht CH Media zudem auch für erstklassige Unterhaltung.
+Michael Sprecher verantwortet damit neu auch die Magazine für den Design- und Architekturbereich sowie die Textil- und Modebranche Wohnrevue, Modulør und Textilrevue.
+"Ich danke Thomas Walliser für sein unternehmerisches Flair sowie für sein grosses Engagement, mit dem er den Zeitschriftenbereich von CH Media geformt und bereichert hat.</t>
+  </si>
+  <si>
+    <t>Pitchgewinn: Dreifive krallt sich digitalen Samsung-Etat</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Verantwortliche bei dreifive: Marleen Albert (Head of Social Media Zürich), Thomas Petroczi (Head of Social Media Wien), Isabell Steiner ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/pitchgewinn-dreifive-krallt-sich-digitalen-samsung-etat-188730</t>
+  </si>
+  <si>
+    <t>Über die dreifive AG Als internationale Digitalagentur bieten wir Dienstleistungen rund um die Konzeption und Umsetzung von Kampagnen auf allen digitalen Kanälen an.
+Unsere Spezialisten aus den Bereichen Search, Display Advertising, Social Media, Kreation und Produktion entwickeln täglich individuelle Kampagnenkonzepte.
+dreifive und die Goldbach Group AG sind hauptsächlich in der Schweiz, Österreich und Deutschland tätig und Unternehmen der TX Group.
+Zudem unterstützt dreifive bei Blog Artikeln und CRM Texten.Samsung Electronics und dreifive verbinde eine gemeinsame Unternehmensphilosophie hinsichtlich Technologie und Mitarbeiter, heisst es in der Mitteilung von dreifive.
+Auch die Agentur dreifive lebe diese Grundsätze, erkennt Zukunftspotenziale, setze auf die neuesten Trends, datengetriebene Ad Technologien und die Förderung ihrer Mitarbeiter*innen.</t>
+  </si>
+  <si>
+    <t>Google Trends zu Bidens Amtseinführung "Wer ist Amanda Gorman?" : Die Google Trends in der Schweiz zu Bidens Amtseinführung</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann. Freitag, 22. Januar 2021 ... hürlimann. Mehr zum Thema. Google Trends Report Schweiz ... Thomas Ruck, Accenture. © Acenture.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/google-trends-zu-bidens-amtseinfuehrung-wer-ist-amanda-gorman-die-google-trends-in-der-schweiz-zu-bidens-amtseinfuehrung-188686</t>
+  </si>
+  <si>
+    <t>© Bild: PexelsAmanda Gorman ist eine US-amerikanische Schriftstellerin, Lyrikerin und Aktivistin.
+Wer ist diese junge Frau?
+Menschen in der Schweiz und anderswo suchten nach Antworten - auf Google.
+Wonach sie sonst noch suchten?
+HORIZONT Swiss hat bei Google nach den Top-Aufsteigern dieses 20.</t>
+  </si>
+  <si>
+    <t>Bezahlschranke für CH-Media-Newsportale: Mathias Meier: "Wenn etwas Wichtiges in ihrem Lebensraum passiert, sind sie mit den CH Media-Titeln dabei."</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Thomas Walliser, Michael Sprecher von CH Media ... Thomas Walliser geht als Leiter Fachmedien und übergibt an Michael Sprecher.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/bezahlschranke-fuer-ch-media-newsportale-mathias-meier-wenn-etwas-wichtiges-in-ihrem-lebensraum-passiert-sind-sie-mit-den-ch-media-titeln-dabei.-188813</t>
+  </si>
+  <si>
+    <t>Bereits seit Mai 2018 sind luzernerzeitung.ch (Zentralschweiz) und tagblatt.ch (Ostschweiz) bezahlpflichtig.
+Damit kommen die Leserinnen und Leser einfach zu den für sie relevanten Inhalten, zu einordnenden Meinungsstücken ebenso wie zu den neuesten Nachrichten aus ihrer Region.
+"Wenn etwas Wichtiges in ihrem Lebensraum passiert, sind sie mit den CH Media-Titeln dabei.
+Neu profitieren auch die Leserinnen und Leser in der Ost- und Zentralschweiz von speziellen Gemeindeseiten, die auf den bisherigen Portalen der Nordwestschweiz bereits seit geraumer Zeit ein wichtiger Bestandteil des Angebots sind.
+Diese können von ihnen selbst erfasst werden und sind klar gekennzeichnet.</t>
+  </si>
+  <si>
+    <t>Serviceplan Suisse : Starkoch greift für BMW zum Pinsel und verzückt die Community</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Sean Amini (Social Media), Thomas Lüber (Creative Direction Social Media), Carmen Anderegg, Barbara Meier, Victor Borel (Produktion) ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/serviceplan-suisse-starkoch-greift-fuer-bmw-zum-pinsel-und-verzueckt-die-community-188818</t>
+  </si>
+  <si>
+    <t>Die Agentur schafft kundenrelevanten Mehrwert durch disziplinübergreifende Konzepte und die Integration von Kreation, Technologie, Content und Produktion.
+Serviceplan Suisse ist Mitglied der Leading Swiss Agencies (LSA).
+Ergänzt mit einem Kurs, bei welchem die Teilnehmenden in die Kunst des Telleranrichtens eingeführt wurden.Genau hier setzte Serviceplan Suisse für die Einladungskarte an, die ausgewählte Kunden im Bereich der Oberklasselimousinen erhielten.
+Und zwar mit Farben, die in einem speziellen Verfahren aus Lebensmitteln wie Kirschen, Zwiebeln, Avocado und Saflor hergestellt wurden.
+Via QR-Code konnten diese zudem in einem Making-of-Video die Entstehung des Kunstwerkes nachverfolgen.Auf Social Media wurde die kunstvolle Aktion weitergeführt und mit erweiterten Zielgruppen in Interaktion getreten.</t>
+  </si>
+  <si>
+    <t>M-Budget: Wirz macht Migros-Kultmarke Beine</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Nadja Kilchhofer (Agency Producing); Vanessa Lehmann-Spalleck, Antonia Sturzeis (Beratung); Thomas Peller, Ruedi Boller, Corinne ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/m-budget-wirz-macht-migros-kultmarke-beine-188733</t>
+  </si>
+  <si>
+    <t>Wie bringt man da die Schweizer Bevölkerung dazu, bei Tiefpreisen stärker an die Migros zu denken?
+Mit M-Budget.
+Und einem direkten und eigenwilligen Auftritt, wie man es von der beliebten Marke kennt.Mit der kreativen Botschaft von Wirz "Tiefpreis garantiert.
+Von zu tief sitzenden Hosen bis zu unkontrollierbaren Waschmaschinen und unerzogenen Hunden ist alles dabei.
+Ebenfalls wird das Sortiment um viele Alltagsartikel erweitert, die neu im unverwechselbaren M-Budget-Packaging zu haben sind – mit aufgefrischtem Design.</t>
+  </si>
+  <si>
+    <t>Rotenfluebahn JA – Bürgschaft NEIN | Publireportagen</t>
+  </si>
+  <si>
+    <t>Bote der Urschweiz</t>
+  </si>
+  <si>
+    <t>Kantonsrat; Dr. Bruno Stanek, Mathematiker &amp; Weltraumexperte; Thomas ... Landschreiber; Dr. Richard Hürlimann, Zahnarzt; Franziska &amp; Urs lneichen, ehern.</t>
+  </si>
+  <si>
+    <t>https://www.bote.ch/publireportagen/rotenfluebahn-ja-buergschaft-nein;art177092,1291122</t>
+  </si>
+  <si>
+    <t>Der Bezirksrat hat umfassenden Einblick in die Akten der Rotenfluebahn und kann die Situa­tion bestens beurteilen.
+Bei den ersten millionenschweren Subventionen von Gemeinde und Bezirk wurden den Stimmberech­tigten Investitionen von CHF 13-14 Mio.
+Der Bezirksrat hat Einblick in den Businessplan, die Bauabrechnung, die Revisionsberichte und in den Expertenbericht der grischconsulta.
+Ein Nein ist die beste Hilfe für eine nachhaltig gesunde Zukunft der Bahn, denn die Bürgschaft löst die Probleme nicht.
+DAS KOMITEE «NEIN ZUR BÜRGSCHAFT ROTENFLUE»Alpthal: Hubert Steiner, Kantonsrat; Arth: Kuno Bürgi, a. Bezirksrat; Ruedi lmlig, a. Kantonsrat; Dr. Bruno Stanek, Mathematiker &amp; Weltraumexper­te; Thomas Steiner, a. Säckelmeister; Erwin Zurfluh,a.</t>
+  </si>
+  <si>
+    <t>Schreibstau nach dem ersten Buch: Wenn Autoren nicht weiterkommen</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/kultur/schreibstau-nach-dem-ersten-buch-wenn-autoren-nicht-weiterkommen-ld.1600241</t>
+  </si>
+  <si>
+    <t>Das verflixte zweite Buch: Wie geht es nach dem Erstling weiter?
+Danach kommt erst einmal nichts mehr – ausser dem Erwartungsdruck.
+Ob mit dem Gänsekiel, mit der Hermes Baby oder mit dem Laptop: Schreiben bleibt ein einsames Geschäft.
+Matthias Korn / Eyeem«Kein Schriftsteller, der bei Trost ist, schreibt eine Autobiografie»: So beginnt Urs Widmer seinen Lebensbericht «Reise an den Rand des Universums» (2013), und er fährt fort: «Denn eine Biografie ist das letzte Buch.
+Hinter der Autobiografie ist nichts.</t>
+  </si>
+  <si>
+    <t>Trump und die Geister der Demokratie: Freiheit ist nur geliehen</t>
+  </si>
+  <si>
+    <t>Thomas Ribi 18 Kommentare 02.02.2021, 20.30 Uhr. Hören. Merken ... Thomas Hürlimann 16.07.2017. Nicht das Handheben macht ... Thomas Ribi 17.03.2017.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/meinung/trump-und-die-geister-der-demokratie-freiheit-ist-nur-geliehen-ld.1599564</t>
+  </si>
+  <si>
+    <t>Kommentar Trump und die bösen Geister der Demokratie: Freiheit ist immer nur geliehen Der Sturm auf das Capitol durch militante Trump-Anhänger zeigt das Dilemma des freiheitlichen Staates: Demokratien lassen sich mit demokratischen Mitteln nicht verteidigen.
+Demokratie ist die Staatsform des institutionalisierten Streits, aber eines Streits, der auf Gewalt verzichtet und sich in geordneten Verfahren abspielt.
+Die bösen und die guten Geister der Demokratie müssen sich gegenseitig in Schach halten.
+Um sich gegen die zu schützen, die sich gegen ihn verschwören, muss ein demokratischer Staat unter Umständen zu undemokratischen Mitteln greifen.
+Um sich gegen die zu schützen, die sich gegen ihn verschwören, muss ein demokratischer Staat unter Umständen zu undemokratischen Mitteln greifen.</t>
+  </si>
+  <si>
+    <t>Radio Pilatus: Andy Wolf kehrt an alte Wirkungsstätte zurück und freut sich rüüdig</t>
+  </si>
+  <si>
+    <t>Thomas Zesiger (45), Programmleiter Radio Pilatus, hat Anfang 2021 erst seine neue Position übernommen und blickt erfreut auf den Start von Andy Wolf hin: ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/radio-pilatus-andy-wolf-kehrt-an-alte-wirkungsstaette-zurueck-und-freut-sich-rueuedig-188910</t>
+  </si>
+  <si>
+    <t>Nach siebenjähriger Absenz kehrt Andy Wolf zurück zu Radio Pilatus.
+Nun gibt Andy Wolf sein Comeback und übernimmt wöchentlich den Samstagmorgen zwischen 07.00 und 13.00 Uhr.
+"Ich bin Radio Pilatus für die Möglichkeit dankbar, als Morgenshow-Moderator aus der schönsten Stadt der Welt die Zentralschweiz ins Wochenende begleiten zu dürfen.
+Denn eines hat sich auch nach siebenjähriger Radio-Pause nicht geändert: Die Leidenschaft und die Begeisterung für das Radio-Handwerk.
+", so Andy Wolf zu seiner Rückkehr zu Radio Pilatus.Die Freude über das Comeback der sympathischen Radiostimme ist auch im Team von Radio Pilatus gross.</t>
+  </si>
+  <si>
+    <t>Frick/Laufenburg - Coronagrossausbruch forderte ein Viertel der Altersheimbewohner – viele Betten sind inzwischen wieder belegt | Aargauer Zeitung</t>
+  </si>
+  <si>
+    <t>Aargauer Zeitung</t>
+  </si>
+  <si>
+    <t>Besuch kurz vor dem Corona-Ausbruch: Regierungsrat Jean-Pierre Gallati (links) und Barbara Hürlimann, Leiterin Abteilung Gesundheit, im Gespräch mit ...</t>
+  </si>
+  <si>
+    <t>https://www.aargauerzeitung.ch/aargau/fricktal/fricklaufenburg-corona-grossausbruch-forderte-ein-viertel-der-altersheimbewohner-viele-betten-sind-wieder-belegt-ld.2098765</t>
+  </si>
+  <si>
+    <t>Im Dezember und Januar starben in den Pflegeheimen in Laufenburg und Frick 52 Bewohner.
+Die meisten an Corona.
+Viele erwarteten, dass die Betten leer bleiben.
+Geschäftsführer Andre Rotzetter sagt, weshalb das nicht so ist – und was die Coronawelle den Verein gekostet hat.</t>
+  </si>
+  <si>
+    <t>Ein Gartenhaus als Wohnung – ist das erlaubt?</t>
+  </si>
+  <si>
+    <t>Wissen.de</t>
+  </si>
+  <si>
+    <t>Anzeige. LEXIKON. Goethehaus (Gartenhaus); Goethehaus (Auflistung); Hürlimann, Thomas; Weimar · Alle Ergebnisse (4). Wahrig Herkunftswörterbuch ...</t>
+  </si>
+  <si>
+    <t>https://www.wissen.de/ein-gartenhaus-als-wohnung-ist-das-erlaubt</t>
+  </si>
+  <si>
+    <t>Prinzipiell ist das dann möglich, wenn das Wohnen dort, wo sich das Gartenhaus befindet, grundsätzlich gestattet ist.
+Ist das der Fall und erfüllt das Gartenhaus alle weiteren Voraussetzungen, ist seine Nutzung als kleines Wohnhaus möglich.
+Hieraus ergibt sich: Obwohl es ohne größeren Aufwand möglich ist, ein Gartenhaus in einer Kleingartensiedlung zu errichten, erleichtert das nicht das Wohnen im Grünen.
+Sofern die Wohnnutzung nicht ausdrücklich erlaubt ist, darf das in einem Gartenhaus nicht der Fall sein.
+Das gilt zumindest dann, wenn niemand seinen Hauptwohnsitz dort anmelden möchte und das Gartenhaus tatsächlich nur zweitweise genutzt wird.</t>
+  </si>
+  <si>
+    <t>Dürrenmatt: Der Meister und seine Hassliebe zum Automobil</t>
+  </si>
+  <si>
+    <t>Thomas Hürlimann 04.01.2021. NZZ abonnieren · Kontakt · AGB und Datenschutz · Impressum. Copyright © Neue Zürcher Zeitung AG. Alle Rechte vorbehalten.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/mobilitaet/auto-mobil/duerrenmatt-der-meister-und-seine-hassliebe-zum-automobil-ld.1599390</t>
+  </si>
+  <si>
+    <t>Der Meister und seine Hassliebe zum Auto Obwohl Friedrich Dürrenmatt in zahlreiche Verkehrsunfälle verwickelt war, blieb das Auto für ihn ein Faszinosum.
+Eigene Autos aber konnte er sich erst nach dem Welterfolg seiner Stücke «Die Physiker» und «Der Besuch der alten Dame» leisten.
+Schon im Kriminalroman «Der Richter und sein Henker» von 1952 deutet sich die Faszination an, die Automobile auf Friedrich Dürrenmatt ausübten.
+Denn der blaue Mercedes, in dem der erschossene Berner Polizeileutnant Ulrich Schmied vom Twanner Dorfpolizisten Alphons Clenin am Bielersee gefunden wird, wurde vom Mercedes-Fahrer Schmied «Charon» genannt – wie der Fährmann aus der griechischen Mythologie, der die Toten über den Grenzfluss der Unterwelt transportiert.
+PDKeine Frage: Eine dramatische Szene, die sich im Hörspiel oder in einem Krimi im Stil der «Panne» effektvoll umsetzen liesse.</t>
+  </si>
+  <si>
+    <t>Dreifive: Blunt GmbH als Neukunden geangelt</t>
+  </si>
+  <si>
+    <t>Thomas Petroczi, Head of Social Media bei dreifive: "Für uns in der dreifive ist es immer wieder spannend in neue Branchen einzutauchen. Der Fachbereich ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/dreifive-blunt-gmbh-als-neukunden-geangelt-189161</t>
+  </si>
+  <si>
+    <t>Dreifive konnte sich als neue Social Media Lead-Agentur für den internationalen Hersteller und Händler von Forst- und Gartenprodukten durchsetzen und betreut ab sofort den DACH-Raum und Frankreich.
+Das Blog-Hosting sowie die Erstellung von zweisprachigen, suchmaschinenoptimierten Blogtexten wird ebenfalls von dreifive übernommen.
+Über dreifive GmbH Als internationale Digitalagentur bieten wir Dienstleistungen rund um die Konzeption und Umsetzung von Kampagnen auf allen digitalen Kanälen an.
+dreifive und die Goldbach Group AG sind hauptsächlich in der Schweiz, Österreich und Deutschland tätig und Unternehmen der TX Group.
+Wir freuen uns auf die Zusammenarbeit in 2021.</t>
+  </si>
+  <si>
+    <t>Tourismus auf TikTok: Grosses Potential für die Schweiz</t>
+  </si>
+  <si>
+    <t>... Smartphone ganz einfach nachmachen können», bestätigt auch Thomas Wlazik, Managing Director Global Business Solutions, bei TikTok Deutschland.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/tourismus-auf-tiktok-grosses-potenzial-fuer-die-schweiz-189042</t>
+  </si>
+  <si>
+    <t>Organische Reichweite *Bei rein organisch ausgespielten Videos werden keine Werbegelder für spezielle Platzierungen im Feed oder beim Öffnen der App bezahlt, um die Reichweite zu erhöhen.
+ST spielt die meisten Videos organisch aus, sammelt aber gezielt Erfahrungen mit neuen TikTok-Werbeformaten wie «Top View», das in der Schweiz seit Juni 2020 zur Verfügung steht.
+Dieses Format ermöglicht das Abspielen von Videos mit Ton von bis zu 60 s Länge und wird automatisch beim Öffnen der App im Vollbildmodus angezeigt.
+Das erste Top-View-Video von ST erreichte rund 1,4 Millionen Aufrufe und knapp 17’000 Likes.
+Die Erfahrungen mit den neuen Werbeformaten hat TikTok mit der Case Study von ST festgehalten.</t>
+  </si>
+  <si>
+    <t>Kentucky Fried Cicken: Serviceplan macht KFC scharf für Tinder und Fans heiss auf Chicken</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Moritz Lüth, Rémy Steinmann (Art Direction), Dominic Shota Schweingruber (Motion Design), Thomas Lüber (Creative Direction), Barbara ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/kentucky-fried-cicken-serviceplan-macht-kfc-scharf-fuer-tinder-und-fans-heiss-auf-chicken-188921</t>
+  </si>
+  <si>
+    <t>Über Serviceplan Suisse AG Serviceplan Suisse AG ist eine eigenständige, inhabergeführte Kommunikationsagentur mit Sitz im Haus der Kommunikation in Zürich.
+Die Agentur schafft kundenrelevanten Mehrwert durch disziplinübergreifende Konzepte und die Integration von Kreation, Technologie, Content und Produktion.
+Um das amerikanische Traditionsunternehmen stärker ins Bewusstsein der Schweizer Bevölkerung zu bringen, wurde Serviceplan Suisse mit der digitalen Kommunikation beauftragt.
+Mit der Promotion aufder heissesten Datingplattform wurde bewiesen, dass KFC auch für Fans von Scharfem die beste Adresse ist.
+Die KFC Tinder-Aktion wurde zusätzlich auf Facebook unterstützt und überzeugt nicht nur in Sachen Hotness.</t>
+  </si>
+  <si>
+    <t>PinkSquirrel: Taucht für Confiserie Sprüngli in neue Schokoladenwelten ein</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann. Freitag, 05. ... Flo Wacker, Viviana Chiosi, Simon Staub, Thomas Ammann (Kreation), Flavia Salvisberg (Beratung), Ella Tjader (Illustrtion).</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/pinksquirrel-taucht-fuer-confiserie-spruengli-in-neue-schokoladenwelten-ein-189058</t>
+  </si>
+  <si>
+    <t>© zvg© zvg© zvgCredits Verantwortlich bei Confiserie Sprüngli: Yumy Pham (Marketingleiterin), Pascal Kielholz (Produktmanager), Zoë Gertsch (Kommunikationsleiterin), Joshua Beckert (Verantwortlicher Digital &amp; Social Media); Verantwortlich bei PinkSquirrel:Flo Wacker, Viviana Chiosi, Simon Staub, Thomas Ammann (Kreation), Flavia Salvisberg (Beratung), Ella Tjader (Illustrtion)Für das umfassende Schokoladensortiment hat PinkSquirrel zusammen mit Sprüngli einen komplett eigenständigen Auftritt konzipiert.
+Nicht weniger als acht verschiedene Verpackungsdesigns erzählen über die vielfältige und sortentypische Herkunft der Kakaobohnen.
+Dabei setzt Sprüngli auf ein neues FSC-zertifiziertes Verpackungsmaterial, frei von Gentechnologie und zum Teil bestehend aus umweltfreundlich rezyklierten Agrarüberresten wie beispielsweise Mais, Zuckerrohr oder Kiwifrüchten.Die detailreich illustrierten Gestaltungswelten dienen zusätzlich als zentrale Plattform, mit der man in die neue Kampagne eintaucht: Digital lanciert werden die neuen Sprüngli-Tafelschokoladen per sofort auf Banner, So-Me Ads, So-Me-Content inkl.
+Wettbewerb sowie via Landingpage und Newsletter.
+Sinnlich ergänzt wird die digitale Kampagne durch Klangkulissen, die Herkunftsländer der Schokolade zusätzlich erleben lassen.</t>
+  </si>
+  <si>
+    <t>Thomas Hürlimann und seine Romane in der Zeitschrift "Text und Kritik"</t>
+  </si>
+  <si>
+    <t>Süddeutsche Zeitung</t>
+  </si>
+  <si>
+    <t>Der Schweizer Schriftsteller Thomas Hürlimann 2001 in Berlin. Zu seinem 70. Geburtstag im Dezember 2020 wurde es Zeit für den Rückblick auf sein Werk. (Foto: ...</t>
+  </si>
+  <si>
+    <t>https://www.sueddeutsche.de/kultur/thomas-huerlimann-geburtstag-text-und-kritik-zeitschrift-1.5211588</t>
+  </si>
+  <si>
+    <t>Jedenfalls hat der Schweizer Zollbeamte Heinrich Übel junior an der Einreise aus Italien gehindert.
+Der Verdächtige hat nicht nur kein schulterlanges Haar, er hat überhaupt kein Haar, wiegt allenfalls sechzig Kilo, und die Narbe an seiner Schläfe verlangt geradezu gebieterisch nach der Rubrik "besondere Kennzeichen".
+Die Zeitschrift "Text und Kritik" hat jetzt Thomas Hürlimann anlässlich seines 70.
+Geburtstages einen Band gewidmet, zu dem der Jubilar das Fragment einer entstehenden Novelle unter dem Titel "Coco Chanel im Kloster" beigesteuert hat.
+Heinrich Übel, ein nicht eben zuverlässiger Ich-Erzähler, hat sich aus dem Fundus einen Schelmenroman zurechtgeschneidert.</t>
+  </si>
+  <si>
+    <t>Was liest Thomas Hürlimann? | NZZ am Sonntag</t>
+  </si>
+  <si>
+    <t>NZZ am Sonntag</t>
+  </si>
+  <si>
+    <t>Von Thomas Hürlimann erschien zuletzt der Band «Abendspaziergang mit dem Kater» (S. Fischer). Gerry Nitsch. Der Leser ist frei (Roland Barthes). Er kann lesen ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/kultur/was-liest-thomas-huerlimann-ld.1603979</t>
+  </si>
+  <si>
+    <t>Was liest Thomas Hürlimann?
+Der Schriftsteller Thomas Hürlimann plädiert für die Freiheit des Lesers.
+Von Thomas Hürlimann erschien zuletzt der Band «Abendspaziergang mit dem Kater» (S. Fischer).
+Er kann lesen, was er will, wann er will, wo er will.
+Er darf ein Buch von hinten beginnen, darf in einem Dostojewski-Wälzer Seiten überspringen, und haucht ihn aus den «Wahlverwandtschaften» die Langeweile an, greift er zu einem Krimi.</t>
+  </si>
+  <si>
+    <t>Menschenfänger, Menschenfresser: Martin Mosebachs neuer ...</t>
+  </si>
+  <si>
+    <t>Die Rheinpfalz</t>
+  </si>
+  <si>
+    <t>Menschenfänger, Menschenfresser: Martin Mosebachs neuer Roman „Krass“. Verspäteter Thomas Mann: Martin Mosebach 2014 ...</t>
+  </si>
+  <si>
+    <t>https://www.rheinpfalz.de/kultur_artikel,-menschenf%C3%A4nger-menschenfresser-martin-mosebachs-neuer-roman-krass-_arid,5174183.html</t>
+  </si>
+  <si>
+    <t>„Krass“ ist vielleicht das beste Buch von Büchner-Preisträger Martin Mosebach.
+Erzählt wird vom Leben und Sterben eines reichen Mannes.
+Es ist ein filigraner Abgesang auf das europäische Besitz- und Bildungsbürgertum.
+Martin Mosebachs Werk ist reich an liebenswerten Schwindlern,cihtneeliizwg dnu ndwgenii senHalt.rhcop Bureatnkrote und sdni ihn asd alzS in red faend Supep edr wgren,eaGt ied eneri ie,srngerp in niree stiftuze afu Lsiuegtn ndu fzeinfEiz nieetmgtrm nrMe.deo rDe nhSicwdrel ist nihimt cuah eBrrud dnu Srrreveltettel sde hsftrsletS.ielrc Kriterki rweenf tiraMn Mbshaoec aj fto niee wgsesei gngiuNe zu fwoezislle tnne,egkno areb ocdh eehr holenh Ⓚ esticenaatrhhl inesurzeegnnnI ndu ieen gzudaere erndzoripoev aehlSrshepewccigr o.vrDer Aorut lsa ttirt cahobeMs stste iew aus med iE ptellge uaf itm lteDieirer und rtgeiietdv dei ecaislhohtk cirKeh udn die nitchalseei eitLgriu ggene die red ndu ath so agr chnsit ma tHu mti hrleipcotis terKhoiterk erod dilgiaetr e.edMorn Der nbeeennekd tgil lsa oirer,evrkastnezv u,rAto tblssafeenl nei ahomsT nMn,a finsmalclssmtleh eni rwS.ichlendnI rde aGieerl nov esocashbM hkcvreretna nsxeEzniet nmitm sKrsa eein logtensduSlner n.ie pRhla aKrss tsi eni ousnrmemslehg udn edm sinthc niihpcle ,sit nei neienerhndme udn shic bveaenusgradre rde mit efWfan etadl, bear chineteilg unr sda ndu dlEe ksehnnec liwl.
+ienejhrM nkereoPper sau Thasom aMnsn athrbce eesin eotgnarEu rgne tmi eWtnro wei erod mzu ehciwgn;eS Krsas tis aosbltu nud macitahh,scisr aebr eerh ine ,wicheSreg ein neiGe rderaKss zehlatb laseeEnld dre a8e-1r0J9reh retsi er mti imene nneekil otaftsHa nvo rocrrehnnS ndu tnGleeufseogl dhurc ieltn;aI nma ewtsluldnta in ri,Cap stebhuc ni paeNle eMeuns nud cirehKn; arKss kel,nt ragatrrnie dun hlbaezt eas.ll iSnee tetmlGldie seeincnh senie ntisktneI rhnufabel: Wähnrde eiens eerGuent t,usnK lurtKu nud htlä er bereil hnca enerniruit lilnVe hscu.Asau Zu rlZeik als ealls ucha kooDrt ,ülJgen nei tieihreGstfaesl,scwesns erd lsa tatukmFo dun seleietiRre eein rhee rugFi .ahmtc glJüne ilgebto es ,hcau den aerrvgtrsAiebt mit winLeedi kScnormsehaeo no(hc os ein )-NmsTo-mnaaehnaM uasuzehdanln.</t>
+  </si>
+  <si>
+    <t>Kulturteil | SCHLAG-wort-ABTAUSCH mit Jana Avanzini</t>
+  </si>
+  <si>
+    <t>041 – Das Kulturmagazin</t>
+  </si>
+  <si>
+    <t>Shakespeare-Bearbeitungen von Thomas Hürlimann. Mein Leuchtturmprojekt: Welches Kulturgut beeindruckt Dich und warum? Die SMT, die kein Aufgeben ...</t>
+  </si>
+  <si>
+    <t>https://www.null41.ch/blog/schlag-wort-abtausch-mit-jana-avanzini</t>
+  </si>
+  <si>
+    <t>SCHLAG-wort-ABTAUSCH mit Jana AvanziniVonNach dem Start unserer neuen Interviewreihe «SCHLAGwortABTAUSCH» mit «Kultz»-Co-Redaktionsleiter Martin Erdmann geht's in die zweite Runde – mit der soeben kommunizierten zweiten Hälfte dieser Redaktionsleitung: Jana Avanzini.
+Wir haben ihr die gleichen Buzzwordz geschickt und sie gebeten, kurz und knackig Stellung zu beziehen.
+Bild: zVgSecret Weapon: Los geht’s mit einem Geheimnis!
+Und der zwar billige, aber wirkungsvolle Hundeblick.
+Die SMT, die kein Aufgeben kennen.</t>
+  </si>
+  <si>
+    <t>Schweizer Bug-Bounty-Plattform erhält Hilfe von Microsoft</t>
+  </si>
+  <si>
+    <t>Computerworld.ch</t>
+  </si>
+  <si>
+    <t>Eine Schweizer Plattform für ethische Hacker will Bug Bounty Switzerland mit Microsoft-Hilfe aufbauen. (Quelle: Thomas Hürlimann (thü)/Zugergrafik/Archiv CW ).</t>
+  </si>
+  <si>
+    <t>https://www.computerworld.ch/security/bug/schweizer-bug-bounty-plattform-erhaelt-hilfe-microsoft-2636588.html</t>
+  </si>
+  <si>
+    <t>Microsoft will Bug Bounty Switzerland dabei unterstützen, eine Schweizer Bug-Bounty-Plattform auf die Beine zu stellen.
+Microsoft unterstützt die Bug Bounty Switzerland GmbH beim Aufbau einer Schweizer Bug-Bounty-Plattform.
+«Leider wird diese Praktik in der Schweiz noch zu selten eingesetzt», bedauert Florian Badertscher, CTO von Bug Bounty Switzerland.
+Daher soll nun eine Schweizer Drehscheibe für die Zusammenarbeit mit ethischen Hackern entstehen.
+«Microsofts Unterstützung bringt uns unserem Ziel, Bug-Bounty-Programme allen schweizerischen Organisationen und Unternehmen einfach zugänglich zu machen, einen entscheidenden Schritt näher», unterstreicht Sandro Nafzger, CEO von Bug Bounty Switzerland.</t>
+  </si>
+  <si>
+    <t>Bücher am Sonntag: Das wird neu bei der NZZaS-Bücherbeilage</t>
+  </si>
+  <si>
+    <t>Aus einem historischen Mordfall macht Flavio Steimann einen zeitlosen Roman. Manfred Papst 27.02.2021. Von Thomas Hürlimann erschien zuletzt der Band ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/notizen/buecher-am-sonntag-das-wird-neu-bei-der-nzzas-buecherbeilage-ld.1603966</t>
+  </si>
+  <si>
+    <t>Notiz Was sich ändert bei «Bücher am Sonntag» Am Sonntag erscheint eine neue Ausgabe unserer Buchbeilage.
+NZZ am Sonntag: Martina, am Sonntag kommt unsere Buchbeilage etwas ungewohnt daher.
+Martina Läubli: Das neue «Bücher am Sonntag» ist umfangreicher, visuell etwas luftiger und inhaltlich vielseitiger.
+«Bücher am Sonntag» ist neu 48 Seiten dick.
+Sein Umgang mit der Thematik der künstlichen Intelligenz ist erfrischend: Es geht um Spracherkennung, Algorithmen, künstliche Menschen und die Mathematikerin Ada Lovelace.</t>
+  </si>
+  <si>
+    <t>Efeu - Die Kulturrundschau vom 20.02.2021 | Die neue ...</t>
+  </si>
+  <si>
+    <t>Perlentaucher</t>
+  </si>
+  <si>
+    <t>... für das die Berliner Musikerin auf Texte von Thomas Brasch zurückgegriffen ... von Text und Kritik, die sich mit dem Schriftsteller Thomas Hürlimann befasst.</t>
+  </si>
+  <si>
+    <t>https://www.perlentaucher.de/efeu/2021-02-20.html</t>
+  </si>
+  <si>
+    <t>... 'Gayhane' ist ein hart erkämpfter Raum, der viele Wandlungen durchgemacht hat.
+Einer von ihnen ist, der mit seinen Bauchtanz- Einlagen zu den Stars der Bühnenshows zählt.
+In der Pressemitteilung dagegen war nur zu lesen, der Cube müsse an anderen aufgeladenen Orten, etwa in Jerusalem oder am Ground Zero in New York, stattfinden.
+Und der Preis für ein Readymade des amerikanischen Künstlers Cameron Rowland "errechnet sich jetzt aus der, verteilt auf die Leasingraten eines Vertrags, der zunächst - wie bei einem Autokauf - über die Zeit von fünf Jahren läuft.
+Und Andreas Platthaus freut sich über den Ankauf vonfür das Frankfurter Caricatura-Museum.</t>
+  </si>
+  <si>
+    <t>Schläfle Trittibach, Kommunikation + Design: Shaperion AG bekommt neuen Markenauftritt</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Direction); Mariska Beirne (Text); Michael Fuchs (Web Entwicklung); Thomas Buchwalder (Fotografie); Aschmann Klauser (Retusche).</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/schlaefle-trittibach-kommunikation--design-shaperion-ag-bekommt-neuen-markenauftritt-189588</t>
+  </si>
+  <si>
+    <t>Corporate Design, Website und Imagebroschüre© zvg© zvg© zvg© zvg© zvgDie Kampagne© zvg© zvg© zvg© zvgCredits Verantwortlich bei Shaperion: Sandra Schnyder (VR &amp; Geschäftsführerin); verantwortlich bei Schläfle Trittibach: Marcel Schläfle, Christoph Trittibach (Creative Direction); Mariska Beirne (Text); Michael Fuchs (Web Entwicklung); Thomas Buchwalder (Fotografie); Aschmann Klauser (Retusche).
+Die Experten von Shaperion beraten und begleiten Firmen und Führungskräfte auf der Stufe Senior oder C-Level im Trennungsmanagement sowie in der Entwicklung einer neuen Führungskultur.
+Die Kunden profitierten von breiter Führungserfahrung in den Bereichen Marketing, HR und Banking, heisst es in der Mitteilung.Schläfle Trittibach wurde mit der Konzeption und Realisation des Gesamtauftritts beauftragt.
+Neben dem Corporate Design wurde auch die Website, eine Imagebroschüre und eine Kampagne entwickelt.Bei der Erstellung der Shaperion Wortmarke wurde eine feine, nuancierte Veränderung bei den Anfangsbuchstaben vorgenommen.
+So, wie auch die Experten von Shaperion bei ihren Kunden an den richtigen Stellen Hand anlegen für eine erfolgreiche Einflussnahme.</t>
+  </si>
+  <si>
+    <t>SRF: Nächste Sparmassnahme wird bekannt</t>
+  </si>
+  <si>
+    <t>Persoenlich.com</t>
+  </si>
+  <si>
+    <t>Pendler, die dann auf SRF 4 News Nachrichten hören wollen, würden enttäuscht. Hürlimann verteidigt gegenüber den CH-Media-Zeitungen die Programmstruktur ...</t>
+  </si>
+  <si>
+    <t>https://www.persoenlich.com/medien/nachste-sparmassnahme-wird-bekannt</t>
+  </si>
+  <si>
+    <t>Medienpartnerschaft: Tamedia-Zeitungen steigen ins Sägemehl</t>
+  </si>
+  <si>
+    <t>Diese Partnerschaft ist für uns in der Region Basel ein absoluter Glücksfall, so OK-Präsident Thomas Weber. "Insbesondere, dass die Basler Zeitung und die ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/medienpartnerschaft-tamedia-zeitungen-steigen-ins-saegemehl-189430</t>
+  </si>
+  <si>
+    <t>Mit den Tamedia-Zeitungen Basler Zeitung und SonntagsZeitung, 20 Minuten und der bz Basel von CH Media als Medienpartner erreicht das ESAF Pratteln im Baselbiet vor, während und nach dem Fest seine Zielgruppen auf nationaler und regionaler Ebene gleichermassen.
+Zusammen mit der SonntagsZeitung und 20 Minuten erreichen wir eine sehr gute Abdeckung und können den Schwingbegeisterten aus der ganzen Schweiz das ESAF Pratteln im Baselbiet näherbringen."
+Das OK plant zusammen mit den Medienpartnern unter anderem mediale Specials.
+Wir sind davon überzeugt, mit den regional und national ausgerichteten Titeln dem grössten Schweizer Sportevent noch mehr Strahlkraft zu verleihen.
+Gleichzeitig bieten wir den Sponsoren und Partnern mit unseren crossmedialen Angeboten eine innovative 360° Lösung, um deren kommunikative Ziele über unsere performanten Kanäle optimal erreichen zu können."</t>
+  </si>
+  <si>
+    <t>Der Geist ist tot, die Hülle auch</t>
+  </si>
+  <si>
+    <t>Seniorweb</t>
+  </si>
+  <si>
+    <t>11 Mar 2021</t>
+  </si>
+  <si>
+    <t>... Brecht, Frisch und Dürrenmatt, aber auch von Vaclav Havel, Thomas Hürlimann, Hansjörg Schneider, Botho Strauss, Elfriede Jelinek und Lukas Bärfuss?</t>
+  </si>
+  <si>
+    <t>https://seniorweb.ch/2021/03/11/der-geist-ist-tot-die-huelle-auch/</t>
+  </si>
+  <si>
+    <t>Unter dem Titel «Theater hat immer mit dem Unvorhergesehenen zu tun», liess die Direktion zum Spielplan 2020/21 verlauten: «Das Modell der acht Hausregisseur*innen hat sich nicht nur bei der Gestaltung der vergangenen und der kommenden Saison bewährt, sondern auch bei der Bewältigung der mit der Corona-Krise entstandenen Herausforderungen, denen am Schauspielhaus Zürich mit reicher künstlerischer Experimentierfreude begegnet wurde.
+Das klassische Repertoire begnügt sich aktuell mit der Nennung von Dürrenmatts Welterfolg „Der Besuch der alten Dame“ zu seinem 100.
+Wie umwerfend originell sich die neuen Päpste am Pfauen verkaufen wollen, zeigt die läppische, neue Schreibweise des Theaters: Zauspielhaus Sürich!
+Können Sie mir aus der jüngeren Garde einen Schauspieler nennen, der nur annähernd an die Gestalt von Bruno Ganz heranreichte?
+Doch wo der Geist tot ist, lässt sich auch über die Hülle nicht mehr diskutieren.</t>
+  </si>
+  <si>
+    <t>Seht her, jetzt kommt die Menopausenkönigin!</t>
+  </si>
+  <si>
+    <t>6 Mar 2021</t>
+  </si>
+  <si>
+    <t>Während sich Schriftsteller wie Philip Roth, J. M. Coetzee oder Thomas Hürlimann in ihren Büchern schonungslos mit dem geistigen und körperlichen Zerfall ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/meinungen/seht-her-jetzt-kommt-die-menopausenkoenigin-ld.1605302</t>
+  </si>
+  <si>
+    <t>Kolumne Seht her, jetzt kommt die Menopausenkönigin!
+Das Alter mag gnadenlos sein, aber es ist auch gnadenlos gerecht.
+Getty ImagesAlter ist keine Zahl.
+Fünfzig ist nicht das neue Vierzig.
+Und auch an vierzig ist nichts so bahnbrechend, wie das ein neues Buch zweier Schweizer Journalistinnen wieder einmal behauptet.</t>
+  </si>
+  <si>
+    <t>Blick.ch : Michel Jeanneret, Thomas Deléchat und drei "Labs" für die Romandie</t>
+  </si>
+  <si>
+    <t>8 Mar 2021</t>
+  </si>
+  <si>
+    <t>Michel Jeanneret, Thomas Deléchat und drei "Labs" für die Romandie. von Beat Hürlimann. Montag, 08. März 2021.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/blick.ch-michel-jeanneret-thomas-delchat-und-drei-labs-fuer-die-romandie-189833</t>
+  </si>
+  <si>
+    <t>Die Blick-Gruppe geht neue Wege mit der Führungsspitze in der Romandie: Mit Michel Jeanneret (47) und Thomas Deléchat (29) verantworten erstmals ein Chefredaktor und ein Product Owner gemeinsam eine Redaktion.
+Die 20-köpfige Redaktion gliedert sich in drei übergreifende "Labs": "Investigative Lab", "Editing Lab" und "Creative Lab".
+© blick.chÜber Ringier Die Ringier AG ist ein innovatives, digitalisiertes und diversifiziertes Schweizer Medienunternehmen, das in Europa, Afrika und Asien aktiv ist.
+"Wir wollen die Geschichten online neu erzählen, unsere Nutzerschaft überraschen und in die Themen einbinden", sagt Deléchat, der für den Aufbau und die Leitung des «Creative Lab» verantwortlich zeichnet.
+Die Einheit fokussiert auf die Bereiche Audio, Video und Social Media, um vor allem auch ein jüngeres Publikum anzusprechen.Gemeinsam haben Jeanneret und Deléchat ein agiles Umfeld geschaffen, damit Blick.ch/fr die Westschweizerinnen und Westschweizer anspricht und zu einer starken Stimme wird.</t>
+  </si>
+  <si>
+    <t>HORIZONT Swiss Digital Talk: Wie Retail Media Marken beflügeln kann</t>
+  </si>
+  <si>
+    <t>10 Mar 2021</t>
+  </si>
+  <si>
+    <t>... ein Industriepartner kostenpflichtig buchen kann, um seine Produkte zu positionieren oder ihren Absatz zu fördern", erklärt beispielsweise Thomas Schwetje.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/horizont-swiss-digital-talk-wie-retail-media-marken-befluegeln-kann-189825</t>
+  </si>
+  <si>
+    <t>© HORIZONT / Screenshot Beat Stoller, haar-shop.ch; Eva-Maria Schmidt und Beat Hürlimann (beide Horizont), Roland Ehrler, SWA, Kim Engels, Reprise; Thomas Schwetje, Coop und Ralf Gehlen, Procter &amp; Gamble (vl.l)Retail Media ist in der Schweiz noch ein Nischenthema.
+Trotzdem lohnt es sich für Werbe-Auftraggeber, mit der Disziplin zu beschäftigen.
+Das zeigte einmal mehr der jüngste HORIZONT Swiss Digital Talk.
+Retail Media kann sich zu einem echten Boost für Marken entwickeln, wenn es das Marketing strategisch richtig anpackt.
+Dazu gehört der auch der Umgang mit Daten.</t>
+  </si>
+  <si>
+    <t>Gemeinderatswahlen Oberägeri – Resultate im Überblick</t>
+  </si>
+  <si>
+    <t>Luzerner Zeitung</t>
+  </si>
+  <si>
+    <t>7 Mar 2021</t>
+  </si>
+  <si>
+    <t>Beat Strebel zieht neu ins Gremium ein. Er erreichte 1356 Stimmen, sein Kontrahent von der SVP, Thomas Müller, 776 Stimmen. Rahel Hug ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/zentralschweiz/zug/gemeinderatswahlen-oberaegeri-resultate-im-ueberblick-ld.2108678</t>
+  </si>
+  <si>
+    <t>Oberägeri Gemeinderatswahl in Oberägeri: FDP verteidigt ihren Sitz Beat Strebel zieht neu ins Gremium ein.
+Bild: PDZwei CVP-Sitze, zwei FDP-Sitze und ein Sitz für das Forum: An der Parteienzusammensetzung im Oberägerer Gemeinderat ändert sich nichts.
+Der Versuch der SVP, nach dem Sitzverlust im Jahr 2018 wieder ins Gremium einzuziehen, scheiterte.
+Thomas Müller, der Kandidat der SVP.
+Viele Herausforderungen kommen auf das Dorf zuBeat Strebel lebt seit zwölf Jahren in Oberägeri und leitet die Ortspartei seit vier Jahren als Co-Präsident.</t>
+  </si>
+  <si>
+    <t>Jung von Matt für V-ZUG: Die Magie liegt im Detail</t>
+  </si>
+  <si>
+    <t>9 Mar 2021</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Florence Scherer, Anne Muhl (Strategie), Marcel Walzl (Projekt- leitung), Thomas Steiner (Chief Client Officer); Verantwortlich bei Jung ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/jung-von-matt-fuer-v-zug-die-magie-liegt-im-detail-189878</t>
+  </si>
+  <si>
+    <t>Jung von Matt LIMMAT liebt Ideen, die inspirieren und arbeitet für Schweizer Kultmarken wie Coop, Mobiliar und Ovomaltine.
+Im Zentrum der globalen Markenkampagne, die zuerst in der Schweiz und dann in 14 weiteren Märkten lanciert wird, steht die Botschaft „Die Magie liegt im Detail“.
+Die gesamte Kampagne wurde im Full-Service-Approach von Jung von Matt entwickelt und umgesetzt.
+Von der Marken- und Kommunikationsstrategie über eine perfekt abgestimmte Mediaplanung, ein effizientes Targeting, eine State-of-the-Art Landingpage bis hin zur Realisation der Werbemittel lieferte Jung von Matt alles für die nationale wie auch internationale Lancierung an.
+Darüber hinaus wird der internationale Rollout der Kampagne ebenfalls durch Jung von Matt gesteuert.</t>
+  </si>
+  <si>
+    <t>#MINIVoices: Serviceplan Suisse entdeckt für MINI Switzerland Microgreens im Grossstadt-Dschungel</t>
+  </si>
+  <si>
+    <t>von Beat Hürlimann ... Kurt Bösiger und Dominic Shota Schweingruber (Filmproduktion und Motion Design), Thomas Lüber (Creative Director), Sidonie Bauer ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/minivoices-serviceplan-suisse-entdeckt-fuer-mini-switzerland-microgreens-im-grossstadt-dschungel-189882</t>
+  </si>
+  <si>
+    <t>Ein hoher Qualitätsanspruch, ein neues innovatives Denken und der Fokus auf Urbanität vereinen die Markenwerte des Zürcher Start-ups und von MINI.
+Serviceplan Suisse für MINI: #MINIVoices​ – UMAMIServiceplan Suisse für MINI: #MINIVoices​ – Denis von UMAMIServiceplan Suisse für MINI: #MINIVoices​ – Manu von UMAMIServiceplan Suisse für MINI: #MINIVoices​ – Robin von UMAMIÜber Serviceplan Suisse AG Serviceplan Suisse AG ist eine eigenständige, inhabergeführte Kommunikationsagentur mit Sitz im Haus der Kommunikation in Zürich.
+Die Agentur schafft kundenrelevanten Mehrwert durch disziplinübergreifende Konzepte und die Integration von Kreation, Technologie, Content und Produktion.
+Für die kommunikative Umsetzung liess sich Serviceplan Suisse für das Konzept "The UMAMI Circle" vom ökologischen Kreislauf inspirieren.
+Daraus entstanden Assets für drei Kommunikationsphasen: Den Auftakt macht ein rund 90 Sekunden langer Hauptfilm samt Teaser-Cutdowns für die Bewerbung auf Facebook und Instagram.Für die zweite Phase produzierte die Agentur drei Portraitfilme als Bühne für die UMAMI-Gründer, ihre Motivationen und Beweggründe.</t>
+  </si>
+  <si>
+    <t>Zuger Beizen werden als «Betriebskantinen» noch wenig genutzt</t>
+  </si>
+  <si>
+    <t>Zentralplus</t>
+  </si>
+  <si>
+    <t>«Es war nicht nichts», resümiert Daniel Hürlimann, Pächter im Restaurant ... ist ein echtes Bedürfnis», sagt Thomas Gawehr, Leiter Gastronomie Migros Luzern.</t>
+  </si>
+  <si>
+    <t>https://www.zentralplus.ch/zuger-beizen-werden-als-betriebskantinen-noch-wenig-genutzt-2027187/</t>
+  </si>
+  <si>
+    <t>Restaurants ersetzen für die Büezer geschlossene Betriebskantinen.
+Regierungsrätin Silvia Thalmann-Gut meint dazu: «Diese Lösung ist im Sinn beider Seiten, eine klassische Win-win-Situation.
+Für die Kontrolle sind die Gemeinden zuständig, welche die Polizei beiziehen können.
+Darauf hat die Volkswirtschaftsdirektion umgehend alle vorübergehenden Betriebskantinen nochmals auf die wichtigsten Vorgaben hingewiesen, und die Polizei hat einzelne Kontrollen vorgenommen.
+Und für die Betreiber ist klar: Nach dem Lockdown muss es richtig losgehen, nur dann ist eine vernünftige Personal- und Lebensmittelplanung möglich.</t>
+  </si>
+  <si>
+    <t>Mobilität nach Coronakrise: Mehr Homeoffice, weniger Pendler</t>
+  </si>
+  <si>
+    <t>Postauto transportierte 2020 einen Viertel weniger Passagiere. Patrick Huerlimann. Die Alliance SwissPass als Branchenverband teilt mit, Prognosen mit diesem ...</t>
+  </si>
+  <si>
+    <t>https://www.aargauerzeitung.ch/schweiz/coronakrise-ein-homeoffice-tag-mehr-pro-woche-und-8-prozent-weniger-pendler-so-veraendert-sich-das-verhalten-der-schweizer-ld.2109063</t>
+  </si>
+  <si>
+    <t>Coronakrise Ein Homeoffice-Tag mehr pro Woche und 8 Prozent weniger Pendler: So verändert sich das Verhalten der Schweizerinnen und Schweizer Die Zürcher Kantonalbank wagt eine erste Schätzung zur Entwicklung der Mobilität nach Corona.
+Viele Arbeitgeber und -nehmer haben die Vorzüge des Homeoffice entdeckt, Hochschulen bieten mehr Kurse online an und viele Pendler haben ihr GA abgegeben.
+Für 41 Prozent der Arbeitnehmenden in der Schweiz sei Homeoffice gut möglich.
+Der Anteil der teilweisen Homeoffice-Nutzern werde von 25 Prozent im Jahr 2019 auf 37 Prozent im Jahr 2022 ansteigen.
+Über 50 Prozent der Reisen in der Schweiz fänden in diesem Segment statt.</t>
+  </si>
+  <si>
+    <t>Abstimmung Budget Ebikon – Resultate im Überblick</t>
+  </si>
+  <si>
+    <t>Nichts wissen von einem Leistungsabbau will auch SP-Präsident Thomas Aregger: «Aber es kommt viel Arbeit auf den Gemeinderat zu.» Dass 61 Prozent Ja ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/zentralschweiz/luzern/abstimmung-ebikoner-sagen-ja-zum-budget-und-zur-steuerfusserhoehung-auf-19-einheiten-ld.2108529</t>
+  </si>
+  <si>
+    <t>Abstimmung Ja zu höheren Steuern und zum Budget in Ebikon – das sind die Reaktionen Die Ebikoner Stimmberechtigten haben am Sonntag das Budget 2021 mit 61 Prozent Ja-Stimmen genehmigt.
+Die Stimmbevölkerung hat das Budget 2021 am Sonntag im zweiten Anlauf überraschend deutlich mit 61 Prozent Ja-Stimmen gutgeheissen.
+Trotzdem sieht das Budget ein Defizit von 3,67 Millionen Franken vor – bei einem Aufwand von rund 113 Millionen Franken.
+Dass die Ebikoner im zweiten Anlauf das Budget genehmigten, erstaunt ihn nicht, der hohe Ja-Stimmen-Anteil allerdings schon.
+Friedrich erwartet vom Gemeinderat ebenfalls, dass er im Hinblick auf die nächste Steuerfusserhöhung bei der Ausgabenseite nochmals über die Bücher geht.</t>
+  </si>
+  <si>
+    <t>Die Finalaufstellung</t>
+  </si>
+  <si>
+    <t>Börsenblatt</t>
+  </si>
+  <si>
+    <t>1 month ago</t>
+  </si>
+  <si>
+    <t>... DLF) Thomas Pynchons Hauptwerk vielstimmig inszeniert; Martin Heindel hat ... die in freier Rede erzählten Internats-Erinnerungen von Thomas Hürlimann ...</t>
+  </si>
+  <si>
+    <t>https://www.boersenblatt.net/news/preise-und-auszeichnungen/die-finalaufstellung-170049</t>
+  </si>
+  <si>
+    <t>Mit 282 Einreichungen von rund 60 Verlagen habe der Hörbuchpreis im Pandemiejahr 2020 (die Einreichfrist für den DHP 2021 endete am 31.
+Lewis, Der Audio Verlag / SWR)" (Teil 1 der "Chroniken von Narnia" von C.S.
+Lewis, Der Audio Verlag / SWR) Anders Sparrings Kinderbuch "Familie von Stibitz: Der Riesenlolli-Raub" (sauerländer audio), dem Schauspieler Dietmar Bär seine Stimme leiht.
+Beste Unterhaltung:"Einsiedeln" , die in freier Rede erzählten Internats-Erinnerungen von Thomas Hürlimann (supposé), die in freier Rede erzählten Internats-Erinnerungen von (supposé) Frank Goosen s persönliche und von ihm selbst gesprochene Liebeserklärung " The Beatles " (tacheles!
+Die anderen Gewinner*innen werden von der Preisträgerjury und der Podcast-Jury des Deutschen Hörbuchpreises bestimmt.</t>
+  </si>
+  <si>
+    <t>Schriftstellerinnen und Schriftsteller über den Genderstern ...</t>
+  </si>
+  <si>
+    <t>Tages-Anzeiger</t>
+  </si>
+  <si>
+    <t>Thomas Hürlimann. Foto: Keystone. «Ich liebe die deutsche Sprache und finde diese Gendereien zum Kotzen. Nie würde ich so ein Sternchen verwenden, auch ...</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/selbstverstaendlich-zum-kotzen-700758809485</t>
+  </si>
+  <si>
+    <t>Schriftstellerinnen und Schriftsteller über den Genderstern – «Selbstverständlich» – «Zum Kotzen» Der Genderstern polarisiert die Schweizer Autorinnen und Autoren.
+Foto: Getty Images/iStockphotoFür Befürworterinnen macht der Genderstern die Sprache gerechter.
+Aber wie wird er von jenen gesehen, die sich mit der Sprache am besten auskennen – von den Schriftstellerinnen und Schriftstellern?
+Wir haben Schweizer Autorinnen und Autoren gefragt:«Können Sie sich vorstellen, das Sternchen zu verwenden, um mehr Inklusion in Ihren Texten zu schaffen?»Hier sind die Antworten.
+Und auch für Kollektive ist der Inklusionszwang ein Poesie-Killer.»</t>
+  </si>
+  <si>
+    <t>Deutscher Hörbuchpreis: Das sind die Nominierten 2021</t>
+  </si>
+  <si>
+    <t>BuchMarkt</t>
+  </si>
+  <si>
+    <t>... DLF) Thomas Pynchons Hauptwerk vielstimmig inszeniert; Martin Heindel hat ... den in freier Rede erzählten Internats-Erinnerungen von Thomas Hürlimann ...</t>
+  </si>
+  <si>
+    <t>https://buchmarkt.de/meldungen/deutscher-hoerbuchpreis-das-sind-die-nominierten-2021/</t>
+  </si>
+  <si>
+    <t>Deutscher Hörbuchpreis: Das sind die Nominierten 2021Die 15 Nominierten für den Deutschen Hörbuchpreis 2021 stehen fest: In fünf Kategorien hat die Nominierungsjury jeweils drei Produktionen für die Endrunde ausgewählt.
+Mit 282 Einreichungen von rund 60 Verlagen verzeichnet der Hörbuchpreis im Pandemiejahr 2020 unverändert hohe Teilnehmerzahlen.
+Über die Gewinnerin / den Gewinner in der Kategorie „Bestes Kinderhörbuch“ entscheidet im April eine sechsköpfige Kinderjury aus Brühl / Rheinland.
+Die anderen Gewinner*innen werden von der Preisträgerjury und der Podcast-Jury des Deutschen Hörbuchpreises bestimmt.
+Mai 2021 im WDR Funkhaus am Wallrafplatz statt und wird liveauf WDR 5, den angeschlossenen Radiosendern der ARD und als Stream im Internet übertragen.</t>
+  </si>
+  <si>
+    <t>Baar - In diesem Co-Working-Space fühlt man sich in die Schweizer Bergwelt versetzt | Luzerner Zeitung</t>
+  </si>
+  <si>
+    <t>Thomas Hürlimann, Tamara Giovinazzo-Jappert und Arno Matter (von links) haben fürs Foto darin Platz genommen. Bild: Stefan Kaiser (Baar, 23. März 2021). Für ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/zentralschweiz/zug/baar-in-diesem-co-working-space-fuehlt-man-sich-in-die-schweizer-bergwelt-versetzt-ld.2118609</t>
+  </si>
+  <si>
+    <t>Baar In diesem Co-Working-Space fühlt man sich in die Schweizer Bergwelt versetzt In einem leer stehenden Gewerberaum in Baar hat sich Unternehmer Arno Matter kreativ ausgetobt.
+Noch hält sich die Nachfrage in Grenzen.
+Exklusiv für AbonnentenDer Baarer Malermeister Arno Matter hat die Coronapandemie zum Anlass genommen, gemeinsam mit seinem Team ein kreatives Projekt in die Tat umzusetzen.
+Er ist überzeugt: «Mehr denn je muss ein Unternehmer Ressourcen erkennen und trotz der aktuell schwierigen Zeit etwas Positives bewirken.» Am Firmensitz der Maler Matter AG an der Altgasse 63 ist in den letzten Monaten ein Co-Working-Space der besonderen Art entstanden.
+Wer sich hier einen Arbeitsplatz mietet, blickt nicht auf weisse und sterile Bürowände oder auf das Chaos im Homeoffice, sondern auf Bergpanoramen und spektakuläre Sonnenuntergänge.</t>
+  </si>
+  <si>
+    <t>CVP und BDP fusionieren: Jetzt hat auch Zürich eine Mitte</t>
+  </si>
+  <si>
+    <t>Am Dienstag haben die Parteipräsidien, Nicole Barandun für die CVP und Thomas Hürlimann für die BDP, in einem formellen Akt die Unterschrift unter den ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/zuerich/cvp-und-bdp-fusionieren-jetzt-hat-auch-zuerich-eine-mitte-ld.1608136</t>
+  </si>
+  <si>
+    <t>CVP und BDP starten den «Aufbruch Mitte» und legen ihre Zürcher Kantonalparteien zusammen Auf nationaler Ebene sind sie bereits vereint.
+Nun fusionieren CVP und BDP auch im Kanton Zürich zur «Mitte».
+Nun gehen auch im Kanton Zürich CVP und BDP in der neuen Partei «Die Mitte» auf.
+Das hätte nämlich vorausgesetzt, dass CVP und BDP sich zuerst auflösen und die Mitte danach neu gründen.
+Mehrere Personen hätten ihm gesagt, wenn die Fusion und der neue Name einmal Realität seien, würden sie der Mitte beitreten.</t>
+  </si>
+  <si>
+    <t>Namenswechsel - CVP und BDP fusionieren: «Die Mitte» ist nun auch in Zürich Tatsache</t>
+  </si>
+  <si>
+    <t>Limmattaler Zeitung</t>
+  </si>
+  <si>
+    <t>... von der bisherigen CVP-Kantonalpräsidentin Nicole Barandun und dem bisherigen BDP-Kantonalpräsidenten Thomas Hürlimann im Co-Präsidium geleitet.</t>
+  </si>
+  <si>
+    <t>https://www.limmattalerzeitung.ch/limmattal/zuerich/namenswechsel-cvp-und-bdp-fusionieren-die-mitte-ist-nun-auch-in-zuerich-tatsache-ld.2119604</t>
+  </si>
+  <si>
+    <t>Namenswechsel CVP und BDP fusionieren: «Die Mitte» ist nun auch in Zürich Tatsache Aus den Zürcher Kantonalparteien von CVP und BDP wird «Die Mitte Kanton Zürich».
+Aus der «CVP» wird «Die Mitte».
+Einzig beim Namenswechsel von «CVP» zu «Die Mitte» hatte es eine Nein-Stimme gegeben.
+Die Fusion von BDP und CVP stärke die politische Mitte im Kanton Zürich, heisst es weiter.
+Auf Bundesebene haben die BDP und die CVP ihren Zusammenschluss unter dem Namen «Die Mitte» bereits auf den 1.</t>
+  </si>
+  <si>
+    <t>Der Zürcher Pfauensaal als Zankapfel</t>
+  </si>
+  <si>
+    <t>17 Mar 2021</t>
+  </si>
+  <si>
+    <t>... Achim Benning und Gerd Heinz über Schauspieler wie André Jung und Burghart Klaussner bis zu Autoren wie Charles Lewinsky und Thomas Hürlimann.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/um-die-zukunft-des-pfauensaals-wird-heftig-gerungen-ld.1606996</t>
+  </si>
+  <si>
+    <t>Der prächtige Theaterraum des Zürcher Schauspielhauses indes ist dem Zürcher Stadtrat nicht mehr gut genug.
+Bereits gegen Ende des letzten Jahres formierten sich Gruppierungen, die den Saal vor der Abrissbirne retten wollen.
+Im November wurden drei Varianten vorgelegt, für die Kosten von 122 bis 132 Millionen Franken veranschlagt sind (einschliesslich der Zumietung weiterer Gebäudeflächen).
+Die Ausgaben für die Version mit Abbruch sind auf «nur» 115 Millionen Franken angesetzt, allerdings auf schwammiger Rechnungsgrundlage.
+So zieht er zusammen mit dem Schauspielhaus-Verwaltungsrat, der offiziell als Auftraggeber für die Kampagne auftritt, die Register der «Pfauen mit Zukunft»-Propaganda.</t>
+  </si>
+  <si>
+    <t>Erstfeld - Nach 13 Jahren: Pfarrer Hürlimann zieht es zurück in seine Heimat</t>
+  </si>
+  <si>
+    <t>Der katholische Priester Viktor Hürlimann verlässt seine Gemeinde Erstfeld nach 13 Jahren. Ihn zieht es zurück in seine «Heimat». Auch Attinghausen muss sich ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/zentralschweiz/uri/erstfeld-nach-13-jahren-pfarrer-huerlimann-zieht-es-zurueck-in-seine-heimat-ld.2115541</t>
+  </si>
+  <si>
+    <t>Erstfeld Nach 13 Jahren: Pfarrer Hürlimann zieht es zurück in seine Heimat Es sei Zeit für einen Wechsel.
+Der katholische Priester Viktor Hürlimann verlässt seine Gemeinde Erstfeld nach 13 Jahren.
+Nach 13 Jahren als Pfarrer von Erstfeld wechselt er zur Gemeinde Rothenthurm auf dem Sattel im Kanton Schwyz.
+«Den Wunsch verspürte ich nach Weihnachten»Der Erstfeld Pfarrer Viktor Hürlimann verlässt die Gemeinde nach 13 Jahren auf eigenen Wunsch.
+«Es ist ein Vernunftentscheid, der nach so langer Zeit nicht leicht fällt», sagt der 57-Jährige auf Anfrage.</t>
+  </si>
+  <si>
+    <t>Kantonsrat - In der Politik werden punkto Kinderbetreuung schnelle Lösungen gefordert</t>
+  </si>
+  <si>
+    <t>Support erhielt sie von Mitmotionär Andreas Hürlimann: «Eine verlässliche und ... Für Kantonsrat Thomas Werner (SVP/Unterägeri) war es ungeheuerlich, «wie ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/zentralschweiz/zug/kantonsrat-in-der-politik-werden-punkto-kinderbetreuung-schnelle-loesungen-gefordert-ld.2119503</t>
+  </si>
+  <si>
+    <t>Kantonsrat In der Politik werden punkto Kinderbetreuung schnelle Lösungen gefordert Passend und kostengünstig, auch in den Ferien: So muss eine künftige flächendeckende Kinderbetreuung im Kanton Zug aussehen.
+In den Grundzügen des in der Motion verlangten flächendeckenden Angebots der Kinderbetreuung waren sich Regierung und Parlament einig.
+SVP verlangte RückweisungFür Kantonsrat Thomas Werner (SVP/Unterägeri) war es ungeheuerlich, «wie oberflächlich und einseitig der Bericht und Antrag der Regierung nach dreijähriger Ausarbeitung ausgefallen ist.
+Deren Sprecher Peter Letter (Oberägeri) bekräftigte, dass sich die FDP für eine freie Wahl des Familienmodells in Eigenverantwortung einsetze.
+Vorgebrachte Argumente versuchte er mit dem Verweis auf eine nicht ganz einfache Umsetzung und die komplizierte Organisationsstruktur zu kontern.</t>
+  </si>
+  <si>
+    <t>Nachhaltigkeits-Label: Brillenmarke Karün startet in der Schweiz exklusiv mit Visilab</t>
+  </si>
+  <si>
+    <t>... diese Botschaft mit der Welt zu teilen, damit mehr Menschen das tragen können, wofür sie stehen“, so Thomas Kimber, Gründer und CEO von Karün. Thomas ...</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/nachhaltigkeits-label-brillenmarke-karuen-startet-in-der-schweiz-exklusiv-mit-visilab-190190</t>
+  </si>
+  <si>
+    <t>Die Allianz zwischen der B-Corp. ("Certified Benefit Corporations" ) Karün und GrandVision eröffnet den europäischen Verbraucher:innen einen Zugang zu dem Circular-Economy-Unternehmen, das zur Wiederherstellung der Natur beiträgt, wie es in einer Medienmitteilung heisst.
+Die Mission: Sehkomfort verbessern, Lösungen anbieten, die den spezifischen Bedürfnissen jedes Einzelnen gerecht werden und die Brille zu einem eigenständigen modischen Accessoire zu machen, das Persönlichkeit zeigt.
+Die Marke bringt eine nachhaltige Kollektion auf den Markt, die in Zusammenarbeit mit der Schauspielerin und Umweltaktivistin Shailene Woodley entwickelt wurde und exklusiv in den GrandVision Stores in Deutschland (Apollo) und der Schweiz (Visilab) erhältlich ist.
+„Wir haben die einmalige Gelegenheit, den Grundstein für jüngere Generationen und Unternehmen zu legen, die Unternehmertum neu denken möchten.
+Mit dieser Kollektion beweisen wir, dass Mode sowohl als Werkzeug zur Selbstinszenierung als auch für ein Leben im Einklang mit der Natur und ihren Gemeinschaften genutzt werden kann“, erklärt Woodley.</t>
+  </si>
+  <si>
+    <t>Berlin, Palästina, London - Der Text+Kritik-Band zu „Gabriele ...</t>
+  </si>
+  <si>
+    <t>Nach ihr kommen Thomas Hürlimann und Loriot, vor ihr Lukas Bärfuss, Ulrich Peltzer und Sybille Berg. Die unverzichtbare Reihe Text+Kritik ist ja eher auf die ...</t>
+  </si>
+  <si>
+    <t>https://literaturkritik.de/arnold-sucker-gabriele-tergit,27786.html</t>
+  </si>
+  <si>
+    <t>Berlin, Palästina, LondonDer Text+Kritik-Band zu „Gabriele Tergit“ fokussiert die Feuilletonistin und die Zeit im ExilNach ihr kommen Thomas Hürlimann und Loriot, vor ihr Lukas Bärfuss, Ulrich Peltzer und Sybille Berg.
+Folgt man der Publikationsgeschichte, so gerieten Tergit und ihr Werk nie völlig in Vergessenheit.
+Insgesamt sind es acht Beiträge, zusätzlich eine biografische Notiz und eine von der Herausgeberin zusammengestellte, erfreulich ausführlich ausgefallene Auswahl-Bibliografie.
+Zumindest quantitativ wird das dem Verhältnis in ihrem Oeuvre gerecht, dennoch hätte man zu den Romanen gerne mehr gelesen.
+Wenn sich die Kritik aber (größtenteils) darauf beschränkt, dass man gerne mehr gelesen hätte, kann man ganz offensichtlich von einem gelungenen Band sprechen.</t>
+  </si>
+  <si>
+    <t>Hedgefonds Petrus sucht Konfrontation mit Aareal Bank</t>
+  </si>
+  <si>
+    <t>... sitzt und früher bei der Commerzbank beschäftigt war, sowie den ehemaligen Zurich- und Swiss-Re-Manager Thomas Christian Hürlimann. Mehr zum Thema.</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/aktuell/finanzen/hedgefonds-petrus-sucht-konfrontation-mit-aareal-bank-17293278.html</t>
+  </si>
+  <si>
+    <t>Der Hedgefonds erhöht mit Gegenvorschlägen für den Aufsichtsrat den Druck auf den Immobilienfinanzierer.
+Der Machtkampf zwischen Vorstand und Aufsichtsrat der Wiesbadener Aareal Bank und dem britisch-österreichischen Hedgefonds Petrus Advisers spitzt sich zu.
+Nicht ganz unerwartet hat Petrus für die am 18.
+Diese Forderungen, die von einigen Beobachtern geteilt werden, sucht Petrus durch mehr Kontrolle im Aufsichtsrat auf den Vorstand durchzusetzen.
+Die Aareal Bank hatte schon vor einigen Tagen die Kritik von Petrus abermals zurückgewiesen.</t>
+  </si>
+  <si>
+    <t>Kommentar zur Gender-Umfrage – Ein bisschen Eleganz, bitte</t>
+  </si>
+  <si>
+    <t>Wer heute über eine Lesung von, sagen wir, Thomas Hürlimann, berichtet, und dabei ... Lübeck, die Heimatstadt Thomas Manns, nutzt diese Variante bereits.</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/ein-bisschen-eleganz-bitte-904267477183</t>
+  </si>
+  <si>
+    <t>Kommentar zur Gender-Umfrage – Ein bisschen Eleganz, bitte Der Genderstern kam in unserer Umfrage miserabel weg.
+Foto: Getty Images, iStockphoto18’274 Leserinnen und Leser nahmen an unserer nicht repräsentativen Umfrage zum Gendern teil.
+Beliebt ist das Sternchen unter den Teilnehmenden also nicht.
+Eine mögliche Erklärung: Es wirkt als Zeichen zu brachial und stört den Lesefluss zu sehr.
+Es gilt, den «trägen Geist der trägen Masse» – so kommentierte eine Professorin in einem Mail das Abstimmungsresultat – stärker zu bearbeiten.</t>
+  </si>
+  <si>
+    <t>Solothurner Literaturpreis geht an die deutsche Autorin Iris Wolff</t>
+  </si>
+  <si>
+    <t>... Gesamtwerk ausgezeichnet. Zu den Preisträgerinnen und Preisträgern gehören Monika Helfer, Peter Stamm, Peter Bichsel, Thomas Hürlimann oder Juli Zeh.</t>
+  </si>
+  <si>
+    <t>https://www.bielertagblatt.ch/nachrichten/kultur/solothurner-literaturpreis-geht-die-deutsche-autorin-iris-wolff</t>
+  </si>
+  <si>
+    <t>Rekorde bei S&amp;P und Nasdaq: Die Wall Street läuft sich warm ...</t>
+  </si>
+  <si>
+    <t>Tagesschau</t>
+  </si>
+  <si>
+    <t>... enorm sein würden", sagte Thomas Hayes von Great Hill Capital in New York. ... den ehemaligen Zurich und Swiss-Re-Manager Thomas Christian Hürlimann.</t>
+  </si>
+  <si>
+    <t>https://www.tagesschau.de/wirtschaft/finanzen/marktberichte/marktbericht-dax-dow-jones-103.html</t>
+  </si>
+  <si>
+    <t>Marktbericht Rekorde bei S&amp;P und Nasdaq Die Wall Street läuft sich warmKurz vor Beginn der US-Berichtssaison scharren die Anleger in den USA deutlich mit den Hufen.
+Grund für den Rückgang war, dass der Covid-Impfstoff von Johnson &amp; Johnson von der US-Gesundheitsbehörde FDA wegen ungeklärter Thrombose-Fällen gestoppt wurde.
+Die Hoffnung, dass der Inflationsanstieg nur vorübergehend sein wird, hatte zuletzt allerdings die Furcht vor steigenden Zinsen abgeschwächt und die Nachfrage nach Technologiewerten wieder angefacht.
+Aktuell haben die USA und die NATO der Ukraine Unterstützung zugesagt angesichts des umfangreichen russischen Truppenaufmarsches an der Grenze des Landes.
+Kampfabstimmung auf der Aareal-HV bahnt sich anDer Aareal-Bank-Großaktionär Petrus Advisers bringt sich für eine Kampfabstimmung auf der Hauptversammlung in Stellung.</t>
+  </si>
+  <si>
+    <t>Bienvenue: Blick legt los in Social Media und präsentiert 20-köpfige Équipe Romande</t>
+  </si>
+  <si>
+    <t>... Gemeinschaft von Blick in der Romandie zu legen", sagt Thomas Deléchat, Product Owner von Blick.ch in der Westschweiz und Leiter des "Creative Lab".</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/schweiz/nachrichten/bienvenue-blick-legt-los-in-social-media-und-praesentiert-20-koepfige-quipe-romande-190609</t>
+  </si>
+  <si>
+    <t>Man setze zu Beginn primär auf Videos sowie weitere Inhalte, die speziell für die sozialen Netzwerke erstellt werde.
+Die Westschweizer Redaktion veröffentliche zudem regelmässig diverse Video-Serien, die von den Video-Spezialistinnen und -Spezialisten des "Creative Lab" produziert würden.
+Noch sieht es in den entsprechenden Social-Media-Accounts von Blick Romandie nach Ruhe vor dem Sturm aus.Man werde zudem direkt in Kontakt mit den Abonnentinnen und Abonnenten treten und insbesondere über Twitter und Instagram den Austausch mit den Journalistinnen und Journalisten fördern.
+Erstmals wird dort das komplette, 20-köpfige Team vorgestellt, das sich am Standort Lausanne in die drei Bereiche "Investigative Lab", "Editing Lab" und "Creative Lab" gliedert.
+Werbeauftraggeber und Agenturen finden auf der Countdown-Seite auch die Ansprechpersonen von Ringier Advertising, die für die Vermarktung von Blick in der Westschweiz verantwortlich zeichnet.</t>
+  </si>
+  <si>
+    <t>Frostnächte in der Region Winterthur – Obstbauern schützen ...</t>
+  </si>
+  <si>
+    <t>Der Landbote</t>
+  </si>
+  <si>
+    <t>Nun drohen massive Schäden an Obstbäumen. Doch die hiesigen Bauern tun alles, um das zu verhindern. Thomas Münzel.</t>
+  </si>
+  <si>
+    <t>https://www.landbote.ch/wetterprognose-raubt-landwirten-den-schlaf-925166998653</t>
+  </si>
+  <si>
+    <t>Frostnächte in der Region Winterthur – Obstbauern schützen Blüten mit Eispanzer Meteo Schweiz hat auch für die kommenden Nächte strengen Frost angekündigt.
+Thomas MünzelDer künstlich erzeugte Eispanzer soll die Blüten retten: Obstbauer Peter Eichenberger kontrolliert am frühen Dienstagmorgen in der Birnenanlage in Rudolfingen die aktuelle Temperatur.
+Minus sechs Grad zeigt das Aussenthermometer am Dienstagmorgen in der Obstanlage von Peter Eichenberger in Rudolfingen an.
+Das bereitet Obstbauern wie Peter Eichenberger Kopfschmerzen – und schlaflose Nächte.
+Weiter nach der WerbungWeiter nach der Werbung</t>
+  </si>
+  <si>
+    <t>Corona - Start mit angezogener Handbremse: Das Wiler Impfzentrum öffnet bald, aber vorerst nur einen Tag pro Woche</t>
+  </si>
+  <si>
+    <t>Es ist ungewöhnlich warm, die Sonne brennt auf den rissigen Asphalt vor einem Gebäude im Agrar Areal in Wil, wo einst Hürlimann seine Traktoren herstellte.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/wil/corona-start-mit-angezogener-handbremse-das-wiler-impfzentrum-oeffnet-bald-aber-vorerst-nur-einen-tag-pro-woche-ld.2121333</t>
+  </si>
+  <si>
+    <t>Corona Start mit angezogener Handbremse: Das Wiler Impfzentrum öffnet bald, aber vorerst nur einen Tag pro Woche Auf dem Wiler Agrar Areal wird am 7.
+Rundgang durch das Wiler Impfzentrum.
+Bild: Tobias GarciaDas Wiler Impfzentrum ist eigentlich noch zu, am 7.
+Das Wiler Impfzentrum: Am 7.
+Bild: Tobias GarciaKapazität hätte es aber für weitaus mehr: Bis 1400 Personen pro Tag können im Wiler Impfzentrum geimpft werden.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,24 +1305,37 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,7 +1377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +1409,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +1461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,14 +1654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:I69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +1689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -664,7 +1715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -690,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -716,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -742,7 +1793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -768,7 +1819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -794,7 +1845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -820,7 +1871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -843,7 +1894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -869,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -895,18 +1946,1388 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44212</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44233</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44237</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>44237</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44253</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44253</v>
+      </c>
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="3">
+        <v>44251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" t="s">
+        <v>200</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" t="s">
+        <v>234</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F52" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F53" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" t="s">
+        <v>249</v>
+      </c>
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F56" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" t="s">
+        <v>280</v>
+      </c>
+      <c r="H60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="5">
+        <v>44299.428263888891</v>
+      </c>
+      <c r="F61" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" t="s">
+        <v>284</v>
+      </c>
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F62" t="s">
+        <v>287</v>
+      </c>
+      <c r="G62" t="s">
+        <v>288</v>
+      </c>
+      <c r="H62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F63" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" t="s">
+        <v>292</v>
+      </c>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F64" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F65" t="s">
+        <v>299</v>
+      </c>
+      <c r="G65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F66" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F67" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" t="s">
+        <v>308</v>
+      </c>
+      <c r="H67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F68" t="s">
+        <v>312</v>
+      </c>
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="H68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="5">
+        <v>44299.435682870368</v>
+      </c>
+      <c r="F69" t="s">
+        <v>316</v>
+      </c>
+      <c r="G69" t="s">
+        <v>317</v>
+      </c>
+      <c r="H69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
